--- a/service/currentforecastonfcst.xlsx
+++ b/service/currentforecastonfcst.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>18/03/2023</t>
+          <t>21/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>962</v>
+        <v>365.3</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520</v>
+        <v>176</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>537</v>
+        <v>297</v>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303</v>
+        <v>94</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>760.5</v>
+        <v>341.9</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733</v>
+        <v>265</v>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>860</v>
+        <v>410</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonfcst.xlsx
+++ b/service/currentforecastonfcst.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365.3</v>
+        <v>763.0999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176</v>
+        <v>315</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>82</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>297</v>
+        <v>527</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>341.9</v>
+        <v>738.4</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265</v>
+        <v>473</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>410</v>
+        <v>727</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>119</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonfcst.xlsx
+++ b/service/currentforecastonfcst.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>21/03/2023</t>
+          <t>24/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>763.0999999999999</v>
+        <v>270.4</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>315</v>
+        <v>159</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527</v>
+        <v>293</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>738.4</v>
+        <v>331.5</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>473</v>
+        <v>233</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>727</v>
+        <v>354</v>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonfcst.xlsx
+++ b/service/currentforecastonfcst.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>270.4</v>
+        <v>806</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159</v>
+        <v>338</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>71</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>293</v>
+        <v>614</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>331.5</v>
+        <v>789.1</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>233</v>
+        <v>483</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>354</v>
+        <v>719</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>151</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonfcst.xlsx
+++ b/service/currentforecastonfcst.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>806</v>
+        <v>1358.5</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>338</v>
+        <v>525</v>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>71</v>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>614</v>
+        <v>887</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>789.1</v>
+        <v>1180.4</v>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>483</v>
+        <v>726</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>719</v>
+        <v>1048</v>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>151</v>
       </c>
       <c r="C16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonfcst.xlsx
+++ b/service/currentforecastonfcst.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>24/03/2023</t>
+          <t>25/03/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1358.5</v>
+        <v>892</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>525</v>
+        <v>292</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>887</v>
+        <v>394</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>399</v>
+        <v>218</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1180.4</v>
+        <v>774</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726</v>
+        <v>486</v>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1048</v>
+        <v>603</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonfcst.xlsx
+++ b/service/currentforecastonfcst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>25/03/2023</t>
+          <t>07/04/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>892</v>
+        <v>1159</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>407</v>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>394</v>
+        <v>815</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218</v>
+        <v>376</v>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>774</v>
+        <v>980</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>486</v>
+        <v>564</v>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>603</v>
+        <v>926</v>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -626,75 +626,62 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="C15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>COV-NOTTE</t>
+          <t>COV-TESTING-RES</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>COV-TESTING-RES</t>
+          <t>COV-VIP-RES</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>COV-VIP-RES</t>
+          <t>COV-WELCOME-CMN-RES</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>COV-WELCOME-CMN-RES</t>
+          <t>COV-WELCOME-RES</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>COV-WELCOME-RES</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>43</v>
-      </c>
-      <c r="C20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/service/currentforecastonfcst.xlsx
+++ b/service/currentforecastonfcst.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1159</v>
+        <v>1315</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>815</v>
+        <v>909</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>980</v>
+        <v>1117</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564</v>
+        <v>633</v>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>926</v>
+        <v>1027</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
